--- a/BackTest/2019-11-18 BackTest FAB.xlsx
+++ b/BackTest/2019-11-18 BackTest FAB.xlsx
@@ -451,20 +451,14 @@
         <v>7.839999999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>7.65</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>7.844999999999994</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.82</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>7.869999999999994</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>7.85</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>7.894999999999993</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.89</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>7.899999999999993</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>7.91</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>7.899999999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -704,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -743,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -782,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -821,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -860,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -899,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -938,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -977,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1016,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1133,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1172,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1289,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1328,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1367,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1406,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1445,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1484,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1562,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1601,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1640,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1718,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1757,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1796,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1835,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1874,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1913,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1991,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2030,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2108,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2147,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2257,18 +2061,18 @@
         <v>7.984999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2296,16 +2100,20 @@
         <v>8.014999999999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7.97</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2335,16 +2143,20 @@
         <v>8.039999999999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="K50" t="n">
+        <v>7.97</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2374,18 +2186,18 @@
         <v>8.059999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2419,10 +2231,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2458,10 +2272,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2498,11 +2314,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2349,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2384,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2615,11 +2419,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2654,11 +2454,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2489,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2524,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2771,11 +2559,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2594,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2629,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2664,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +2699,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2734,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2769,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3044,11 +2804,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +2839,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3118,16 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3155,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3190,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3470,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3750,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3785,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3820,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4762,13 +4512,17 @@
         <v>8.880000000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K117" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4797,14 +4551,22 @@
         <v>8.960000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K118" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4832,14 +4594,22 @@
         <v>9.059999999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -7842,14 +7612,20 @@
         <v>8.844999999999999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7877,14 +7653,20 @@
         <v>8.839999999999998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>8.74</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7919,7 +7701,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7947,14 +7733,20 @@
         <v>8.82</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>8.75</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7982,14 +7774,20 @@
         <v>8.914999999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8017,14 +7815,20 @@
         <v>8.939999999999998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>8.94</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8052,14 +7856,20 @@
         <v>8.954999999999998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>8.94</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8087,14 +7897,20 @@
         <v>8.879999999999999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8129,7 +7945,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8157,14 +7977,20 @@
         <v>8.789999999999999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8192,14 +8018,20 @@
         <v>8.829999999999998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +8059,20 @@
         <v>8.869999999999997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +8100,20 @@
         <v>8.909999999999997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +8141,20 @@
         <v>8.874999999999996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8332,14 +8182,20 @@
         <v>8.849999999999996</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8367,14 +8223,20 @@
         <v>8.934999999999997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8.9</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8402,14 +8264,20 @@
         <v>8.929999999999996</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8437,14 +8305,20 @@
         <v>8.889999999999997</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8472,14 +8346,20 @@
         <v>8.889999999999997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +8387,20 @@
         <v>8.894999999999996</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8542,14 +8428,20 @@
         <v>8.929999999999996</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8.9</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8577,14 +8469,20 @@
         <v>8.974999999999998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +8510,20 @@
         <v>9.004999999999997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8.99</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8647,14 +8551,20 @@
         <v>9.004999999999995</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>9.02</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8682,14 +8592,20 @@
         <v>8.989999999999997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8.99</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8724,7 +8640,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8759,7 +8679,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8794,7 +8718,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8829,7 +8757,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8864,7 +8796,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8899,7 +8835,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8934,7 +8874,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +8913,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9004,7 +8952,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +8991,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9074,7 +9030,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9109,7 +9069,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9144,7 +9108,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9179,7 +9147,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9186,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9225,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9284,7 +9264,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9319,7 +9303,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9342,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +9381,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9424,7 +9420,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +9459,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9494,7 +9498,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9537,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9564,7 +9576,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9599,7 +9615,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9634,7 +9654,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +9693,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +9732,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +9771,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9774,7 +9810,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9809,7 +9849,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +9888,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9879,7 +9927,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +9966,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9949,7 +10005,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9984,7 +10044,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10019,7 +10083,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10054,7 +10122,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10089,7 +10161,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10200,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10159,7 +10239,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +10278,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10229,7 +10317,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10264,7 +10356,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10299,7 +10395,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10334,7 +10434,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10473,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10404,7 +10512,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10439,7 +10551,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10474,7 +10590,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10509,7 +10629,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10668,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10579,7 +10707,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10746,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10785,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10684,7 +10824,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10719,7 +10863,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10754,7 +10902,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10789,7 +10941,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +10980,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11019,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10894,7 +11058,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10929,7 +11097,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10964,7 +11136,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +11175,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11034,7 +11214,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11069,7 +11253,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11104,7 +11292,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11139,7 +11331,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11174,7 +11370,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11209,7 +11409,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11244,7 +11448,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11487,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11314,7 +11526,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11349,7 +11565,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11384,7 +11604,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11419,7 +11643,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11454,7 +11682,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11489,7 +11721,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11524,7 +11760,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11559,7 +11799,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11594,7 +11838,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11629,7 +11877,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11664,7 +11916,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11699,7 +11955,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11734,7 +11994,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-18 BackTest FAB.xlsx
+++ b/BackTest/2019-11-18 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1028972.708599465</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1028872.708599465</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.33</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-1256093.142299465</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-1255993.142299465</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-1444535.843099465</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>-1444535.843099465</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>-1444292.501399465</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>-1445957.501399465</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>-1448557.501399465</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,15 +1054,19 @@
         <v>-1448557.501399465</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>7.25</v>
       </c>
       <c r="J17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,17 +1095,17 @@
         <v>-1435225.501399465</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>7.25</v>
       </c>
       <c r="J18" t="n">
-        <v>7.25</v>
+        <v>7.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1024,17 +1136,17 @@
         <v>-1435225.501399465</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>7.36</v>
       </c>
       <c r="J19" t="n">
-        <v>7.25</v>
+        <v>7.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1065,11 +1177,19 @@
         <v>-1438329.502199465</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1098,15 +1218,19 @@
         <v>-1438329.502199465</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7.11</v>
       </c>
       <c r="J21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1135,17 +1259,17 @@
         <v>-1528478.967999465</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7.11</v>
       </c>
       <c r="J22" t="n">
-        <v>7.11</v>
+        <v>7.33</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1176,17 +1300,17 @@
         <v>-1528278.967999465</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7.04</v>
       </c>
       <c r="J23" t="n">
-        <v>7.11</v>
+        <v>7.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1217,15 +1341,19 @@
         <v>-1528278.967999465</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>7.42</v>
       </c>
       <c r="J24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1254,17 +1382,17 @@
         <v>-1529626.967999465</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>7.42</v>
       </c>
       <c r="J25" t="n">
-        <v>7.42</v>
+        <v>7.33</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1295,17 +1423,17 @@
         <v>-1509601.685299465</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>7.09</v>
       </c>
       <c r="J26" t="n">
-        <v>7.42</v>
+        <v>7.33</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1336,15 +1464,19 @@
         <v>-1509601.685299465</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>7.12</v>
       </c>
       <c r="J27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1373,17 +1505,17 @@
         <v>-1489269.765299465</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>7.12</v>
       </c>
       <c r="J28" t="n">
-        <v>7.12</v>
+        <v>7.33</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1414,17 +1546,17 @@
         <v>-1489169.765299465</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.13</v>
       </c>
       <c r="J29" t="n">
-        <v>7.12</v>
+        <v>7.33</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1455,15 +1587,19 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.32</v>
       </c>
       <c r="J30" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1492,17 +1628,17 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.3</v>
       </c>
       <c r="J31" t="n">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1533,17 +1669,17 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.3</v>
       </c>
       <c r="J32" t="n">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1574,15 +1710,19 @@
         <v>-1489469.765299465</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>7.3</v>
       </c>
       <c r="J33" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1611,17 +1751,17 @@
         <v>-1489369.765299465</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>7.33</v>
       </c>
       <c r="J34" t="n">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1652,17 +1792,17 @@
         <v>-1496348.872999465</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>7.34</v>
       </c>
       <c r="J35" t="n">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1693,15 +1833,19 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>7.31</v>
       </c>
       <c r="J36" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>7.33</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1730,17 +1874,17 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>7.37</v>
       </c>
       <c r="J37" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1771,17 +1915,17 @@
         <v>-1510026.290899465</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>7.37</v>
       </c>
       <c r="J38" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1812,17 +1956,17 @@
         <v>-1618631.254299465</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>7.32</v>
       </c>
       <c r="J39" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1853,13 +1997,13 @@
         <v>-1614489.290799465</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>7.29</v>
       </c>
       <c r="J40" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1894,13 +2038,13 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>7.3</v>
       </c>
       <c r="J41" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1935,13 +2079,13 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>7.37</v>
       </c>
       <c r="J42" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1976,11 +2120,13 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J43" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2015,11 +2161,13 @@
         <v>-1614695.974699465</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J44" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2054,11 +2202,13 @@
         <v>-1688467.379099465</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J45" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2093,13 +2243,13 @@
         <v>-1769358.682199465</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>7.29</v>
       </c>
       <c r="J46" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2134,11 +2284,13 @@
         <v>-1769258.682199465</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.27</v>
+      </c>
       <c r="J47" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2173,11 +2325,13 @@
         <v>-1778077.254799465</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J48" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2212,11 +2366,13 @@
         <v>-1882620.178399466</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J49" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2251,13 +2407,13 @@
         <v>-1882520.178399466</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>7.25</v>
       </c>
       <c r="J50" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2292,11 +2448,13 @@
         <v>-2482756.611699466</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J51" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2331,13 +2489,13 @@
         <v>-2594383.210499465</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>7.14</v>
       </c>
       <c r="J52" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2372,11 +2530,13 @@
         <v>-2613935.844899465</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.13</v>
+      </c>
       <c r="J53" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2411,13 +2571,13 @@
         <v>-2613835.844899465</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>7.12</v>
       </c>
       <c r="J54" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2452,13 +2612,13 @@
         <v>-2053636.51447897</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>7.13</v>
       </c>
       <c r="J55" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2493,13 +2653,13 @@
         <v>-1247910.788744377</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>7.27</v>
       </c>
       <c r="J56" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2534,11 +2694,13 @@
         <v>-985029.792519664</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J57" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2573,13 +2735,11 @@
         <v>-994144.034719664</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2618,7 +2778,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2657,7 +2817,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2696,7 +2856,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2735,7 +2895,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2774,7 +2934,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2813,7 +2973,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2852,7 +3012,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2891,7 +3051,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2930,7 +3090,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2969,7 +3129,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3008,7 +3168,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3047,7 +3207,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3086,7 +3246,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3125,7 +3285,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3164,7 +3324,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3203,7 +3363,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3242,7 +3402,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3281,7 +3441,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3320,7 +3480,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3359,7 +3519,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3398,7 +3558,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3437,7 +3597,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3476,7 +3636,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3515,7 +3675,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3554,7 +3714,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3593,7 +3753,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3632,7 +3792,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3671,7 +3831,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3710,7 +3870,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3749,7 +3909,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3788,7 +3948,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3827,7 +3987,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3866,7 +4026,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3905,7 +4065,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3944,7 +4104,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3983,7 +4143,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4022,7 +4182,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4061,7 +4221,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4100,7 +4260,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4139,7 +4299,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4178,7 +4338,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4217,7 +4377,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4256,7 +4416,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4295,7 +4455,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4334,7 +4494,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4373,7 +4533,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4412,7 +4572,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4451,7 +4611,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4490,7 +4650,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4529,7 +4689,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4568,7 +4728,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4607,7 +4767,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4646,7 +4806,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4685,7 +4845,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4724,7 +4884,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4763,7 +4923,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4802,7 +4962,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4841,7 +5001,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4880,7 +5040,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4919,7 +5079,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4958,7 +5118,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4997,7 +5157,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5036,7 +5196,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5075,7 +5235,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5114,7 +5274,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5153,7 +5313,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5192,7 +5352,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5231,7 +5391,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5270,7 +5430,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5309,7 +5469,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5348,7 +5508,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5387,7 +5547,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5426,7 +5586,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5465,7 +5625,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5504,7 +5664,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5543,7 +5703,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5582,7 +5742,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5621,7 +5781,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5660,7 +5820,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5699,7 +5859,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5738,7 +5898,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5777,7 +5937,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5816,7 +5976,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5855,7 +6015,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5894,7 +6054,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5929,11 +6089,11 @@
         <v>15510362.24967743</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5972,7 +6132,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6011,7 +6171,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6050,7 +6210,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6089,7 +6249,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6128,7 +6288,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6167,7 +6327,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6206,7 +6366,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6245,7 +6405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6284,7 +6444,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6323,7 +6483,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6362,7 +6522,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6401,7 +6561,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6440,7 +6600,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6479,7 +6639,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6518,7 +6678,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6557,7 +6717,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6596,7 +6756,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6635,7 +6795,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6674,7 +6834,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6713,7 +6873,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6752,7 +6912,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6791,7 +6951,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6830,7 +6990,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6869,7 +7029,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6908,7 +7068,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6943,21 +7103,23 @@
         <v>10868932.2701983</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>1.269215552523875</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1.010914051841746</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6985,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7024,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7060,17 +7210,11 @@
         <v>10700177.97480007</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7099,17 +7243,11 @@
         <v>10702481.13610007</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7141,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +7309,11 @@
         <v>10531896.66470007</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +7342,11 @@
         <v>10582984.84600007</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7258,14 +7378,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +7408,11 @@
         <v>10734314.73650007</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +7441,11 @@
         <v>10856427.92990083</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +7510,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7453,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +7576,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7528,17 +7606,11 @@
         <v>10628213.69050083</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7567,17 +7639,11 @@
         <v>10637093.33730083</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +7675,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +7708,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +7741,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7774,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +7840,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +7873,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +7906,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +7939,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +7972,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +8005,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +8038,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8077,14 +8071,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +8104,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +8137,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8194,14 +8170,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8233,14 +8203,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8272,14 +8236,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8311,14 +8269,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8350,14 +8302,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8389,14 +8335,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8428,14 +8368,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8467,14 +8401,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +8434,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +8467,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8584,14 +8500,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8623,14 +8533,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +8566,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8701,14 +8599,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8740,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +8665,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +8698,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8857,14 +8731,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +8764,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8935,14 +8797,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8974,14 +8830,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9013,14 +8863,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8896,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8929,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9169,14 +8995,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +9028,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +9061,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9286,14 +9094,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9325,14 +9127,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9364,14 +9160,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9403,14 +9193,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +9226,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +9259,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9520,14 +9292,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +9325,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9598,14 +9358,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9637,14 +9391,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9676,14 +9424,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9715,14 +9457,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9754,14 +9490,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9793,14 +9523,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9832,14 +9556,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9871,14 +9589,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9910,14 +9622,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9949,14 +9655,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9988,14 +9688,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10027,14 +9721,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +9754,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +9820,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10183,14 +9853,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10222,14 +9886,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9919,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10300,14 +9952,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10339,14 +9985,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10378,14 +10018,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10417,14 +10051,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10456,14 +10084,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10495,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10534,14 +10150,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10573,14 +10183,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10612,14 +10216,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10651,14 +10249,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10690,14 +10282,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10729,14 +10315,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10768,14 +10348,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10807,14 +10381,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10846,14 +10414,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10885,14 +10447,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10924,14 +10480,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10963,14 +10513,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11002,14 +10546,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11041,14 +10579,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11080,14 +10612,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11119,14 +10645,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11158,14 +10678,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11197,14 +10711,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11236,14 +10744,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11275,14 +10777,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11314,14 +10810,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11353,14 +10843,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11392,14 +10876,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11431,14 +10909,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11470,14 +10942,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11509,14 +10975,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11548,14 +11008,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11587,14 +11041,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11626,14 +11074,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11665,14 +11107,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11704,14 +11140,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11743,14 +11173,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11782,14 +11206,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11821,14 +11239,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11860,14 +11272,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11899,14 +11305,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11938,14 +11338,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11977,14 +11371,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12016,14 +11404,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12055,14 +11437,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12094,14 +11470,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12133,14 +11503,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12169,23 +11533,15 @@
         <v>12710896.52606674</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
-        <v>1.25765389876881</v>
-      </c>
-      <c r="M304" t="n">
-        <v>1.053977272727273</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12210,7 +11566,7 @@
         <v>12794863.65026673</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12243,7 +11599,7 @@
         <v>12667455.63166673</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12276,7 +11632,7 @@
         <v>12762986.03916209</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12309,7 +11665,7 @@
         <v>13120747.02950482</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12342,7 +11698,7 @@
         <v>15629014.35950621</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12375,7 +11731,7 @@
         <v>15068598.44634597</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12408,7 +11764,7 @@
         <v>14789634.48854597</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12441,7 +11797,7 @@
         <v>14854177.38509899</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12474,7 +11830,7 @@
         <v>14668449.80770063</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12507,7 +11863,7 @@
         <v>14439050.08032089</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12540,7 +11896,7 @@
         <v>14964649.95252089</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12573,7 +11929,7 @@
         <v>15424633.64632089</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12606,7 +11962,7 @@
         <v>15612950.88852494</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12639,7 +11995,7 @@
         <v>16988830.6552389</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12672,7 +12028,7 @@
         <v>16887316.94030141</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12705,7 +12061,7 @@
         <v>17645731.12988746</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12738,7 +12094,7 @@
         <v>19559446.8503371</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12771,7 +12127,7 @@
         <v>19227541.67838705</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12804,7 +12160,7 @@
         <v>18364915.91968705</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12837,7 +12193,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12870,7 +12226,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12903,7 +12259,7 @@
         <v>18783175.36938644</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12936,7 +12292,7 @@
         <v>18566159.37658644</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12969,7 +12325,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13002,7 +12358,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13035,7 +12391,7 @@
         <v>19092173.17278146</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13068,7 +12424,7 @@
         <v>18979343.45168146</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13101,7 +12457,7 @@
         <v>18769918.49408146</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13134,7 +12490,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13167,7 +12523,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13200,7 +12556,7 @@
         <v>19063313.7385634</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13233,7 +12589,7 @@
         <v>19053760.4221634</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13266,7 +12622,7 @@
         <v>18843764.77036341</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13299,7 +12655,7 @@
         <v>18849392.05296341</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13332,7 +12688,7 @@
         <v>17367251.87166341</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13365,7 +12721,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13398,7 +12754,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13431,7 +12787,7 @@
         <v>16709375.33526341</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13464,7 +12820,7 @@
         <v>16645799.13136341</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13497,7 +12853,7 @@
         <v>16312552.75346341</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13530,7 +12886,7 @@
         <v>15735667.46736341</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13563,7 +12919,7 @@
         <v>15857527.93256341</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13596,7 +12952,7 @@
         <v>16023949.3758634</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13629,7 +12985,7 @@
         <v>15997402.4202634</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13662,7 +13018,7 @@
         <v>16346928.5597634</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13695,7 +13051,7 @@
         <v>16611001.7151634</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13728,7 +13084,7 @@
         <v>16831608.9288634</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13761,7 +13117,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13794,7 +13150,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13827,7 +13183,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13860,7 +13216,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13893,7 +13249,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14025,7 +13381,7 @@
         <v>17094616.52686237</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14289,7 +13645,7 @@
         <v>17007798.58324831</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14322,7 +13678,7 @@
         <v>17195200.71704831</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14355,7 +13711,7 @@
         <v>17026268.81284831</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14388,7 +13744,7 @@
         <v>16955976.63174831</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14421,7 +13777,7 @@
         <v>16955976.63174831</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14454,7 +13810,7 @@
         <v>16570345.95704831</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14487,7 +13843,7 @@
         <v>16807162.35934831</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14520,7 +13876,7 @@
         <v>16834629.79664831</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14553,7 +13909,7 @@
         <v>16732839.40394831</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14586,7 +13942,7 @@
         <v>16433808.15834831</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14619,7 +13975,7 @@
         <v>16527474.43014831</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14652,7 +14008,7 @@
         <v>16533514.47444831</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14685,7 +14041,7 @@
         <v>16550856.23514831</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14718,7 +14074,7 @@
         <v>16635202.81784831</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14751,7 +14107,7 @@
         <v>16635202.81784831</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14784,7 +14140,7 @@
         <v>16637533.98404831</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14817,7 +14173,7 @@
         <v>16634225.27174831</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14850,7 +14206,7 @@
         <v>16015447.36314831</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14861,6 +14217,6 @@
       <c r="M385" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest FAB.xlsx
+++ b/BackTest/2019-11-18 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1628,11 +1628,9 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>7.33</v>
       </c>
@@ -1669,11 +1667,9 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>7.33</v>
       </c>
@@ -1710,11 +1706,9 @@
         <v>-1489469.765299465</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>7.33</v>
       </c>
@@ -1792,11 +1786,9 @@
         <v>-1496348.872999465</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>7.33</v>
       </c>
@@ -1833,11 +1825,9 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>7.33</v>
       </c>
@@ -1874,11 +1864,9 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>7.33</v>
       </c>
@@ -1915,11 +1903,9 @@
         <v>-1510026.290899465</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>7.33</v>
       </c>
@@ -1956,11 +1942,9 @@
         <v>-1618631.254299465</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>7.33</v>
       </c>
@@ -1997,11 +1981,9 @@
         <v>-1614489.290799465</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>7.33</v>
       </c>
@@ -2038,11 +2020,9 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>7.33</v>
       </c>
@@ -2079,11 +2059,9 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>7.33</v>
       </c>
@@ -2120,11 +2098,9 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>7.33</v>
       </c>
@@ -2161,11 +2137,9 @@
         <v>-1614695.974699465</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>7.33</v>
       </c>
@@ -2202,11 +2176,9 @@
         <v>-1688467.379099465</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>7.33</v>
       </c>
@@ -2243,11 +2215,9 @@
         <v>-1769358.682199465</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>7.33</v>
       </c>
@@ -2284,11 +2254,9 @@
         <v>-1769258.682199465</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>7.33</v>
       </c>
@@ -2325,11 +2293,9 @@
         <v>-1778077.254799465</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>7.33</v>
       </c>
@@ -2366,11 +2332,9 @@
         <v>-1882620.178399466</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>7.33</v>
       </c>
@@ -2407,11 +2371,9 @@
         <v>-1882520.178399466</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>7.33</v>
       </c>
@@ -2448,11 +2410,9 @@
         <v>-2482756.611699466</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>7.33</v>
       </c>
@@ -2489,11 +2449,9 @@
         <v>-2594383.210499465</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>7.33</v>
       </c>
@@ -2530,11 +2488,9 @@
         <v>-2613935.844899465</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>7.33</v>
       </c>
@@ -2653,11 +2609,9 @@
         <v>-1247910.788744377</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>7.33</v>
       </c>
@@ -2694,11 +2648,9 @@
         <v>-985029.792519664</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>7.33</v>
       </c>
@@ -5660,7 +5612,7 @@
         <v>8524773.866511198</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
@@ -5668,13 +5620,15 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>1.201002728512961</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.010914051841746</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5699,17 +5653,11 @@
         <v>9706589.107788112</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5738,17 +5686,11 @@
         <v>11635750.53344069</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5722,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +5755,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5788,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5821,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5936,14 +5854,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5975,14 +5887,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5920,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5953,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5986,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +6019,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +6052,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +6085,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +6118,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +6151,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +6184,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6250,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +6316,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +6349,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +6382,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6599,14 +6415,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6638,14 +6448,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6677,14 +6481,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6716,14 +6514,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6752,17 +6544,11 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6791,17 +6577,11 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6830,17 +6610,11 @@
         <v>11048107.30656618</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6869,17 +6643,11 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6908,17 +6676,11 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6947,17 +6709,11 @@
         <v>10596759.24696618</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6986,17 +6742,11 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7025,17 +6775,11 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7064,17 +6808,11 @@
         <v>10852002.15117518</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7106,20 +6844,12 @@
         <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>1.269215552523875</v>
-      </c>
-      <c r="M170" t="n">
-        <v>1.010914051841746</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7144,7 +6874,7 @@
         <v>10774133.3155983</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7210,7 +6940,7 @@
         <v>10700177.97480007</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7243,7 +6973,7 @@
         <v>10702481.13610007</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7309,7 +7039,7 @@
         <v>10531896.66470007</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7342,7 +7072,7 @@
         <v>10582984.84600007</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7408,7 +7138,7 @@
         <v>10734314.73650007</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7441,7 +7171,7 @@
         <v>10856427.92990083</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7606,7 +7336,7 @@
         <v>10628213.69050083</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7639,7 +7369,7 @@
         <v>10637093.33730083</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -12028,7 +11758,7 @@
         <v>16887316.94030141</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12061,7 +11791,7 @@
         <v>17645731.12988746</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12094,7 +11824,7 @@
         <v>19559446.8503371</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12127,7 +11857,7 @@
         <v>19227541.67838705</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12160,7 +11890,7 @@
         <v>18364915.91968705</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12193,7 +11923,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12226,7 +11956,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12259,7 +11989,7 @@
         <v>18783175.36938644</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12292,7 +12022,7 @@
         <v>18566159.37658644</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12325,7 +12055,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12358,7 +12088,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12391,7 +12121,7 @@
         <v>19092173.17278146</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12424,7 +12154,7 @@
         <v>18979343.45168146</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12457,7 +12187,7 @@
         <v>18769918.49408146</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12490,7 +12220,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12523,7 +12253,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12556,7 +12286,7 @@
         <v>19063313.7385634</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12589,7 +12319,7 @@
         <v>19053760.4221634</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12622,7 +12352,7 @@
         <v>18843764.77036341</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12655,7 +12385,7 @@
         <v>18849392.05296341</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12688,7 +12418,7 @@
         <v>17367251.87166341</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12721,7 +12451,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12754,7 +12484,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12787,7 +12517,7 @@
         <v>16709375.33526341</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12820,7 +12550,7 @@
         <v>16645799.13136341</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12853,7 +12583,7 @@
         <v>16312552.75346341</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12886,7 +12616,7 @@
         <v>15735667.46736341</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12919,7 +12649,7 @@
         <v>15857527.93256341</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12952,7 +12682,7 @@
         <v>16023949.3758634</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12985,7 +12715,7 @@
         <v>15997402.4202634</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13018,7 +12748,7 @@
         <v>16346928.5597634</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13051,7 +12781,7 @@
         <v>16611001.7151634</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13084,7 +12814,7 @@
         <v>16831608.9288634</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13117,7 +12847,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13150,7 +12880,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13183,7 +12913,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13216,7 +12946,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13249,7 +12979,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13381,7 +13111,7 @@
         <v>17094616.52686237</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13645,7 +13375,7 @@
         <v>17007798.58324831</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13678,7 +13408,7 @@
         <v>17195200.71704831</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13711,7 +13441,7 @@
         <v>17026268.81284831</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13744,7 +13474,7 @@
         <v>16955976.63174831</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13777,7 +13507,7 @@
         <v>16955976.63174831</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13810,7 +13540,7 @@
         <v>16570345.95704831</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13843,7 +13573,7 @@
         <v>16807162.35934831</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13876,7 +13606,7 @@
         <v>16834629.79664831</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13909,7 +13639,7 @@
         <v>16732839.40394831</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13942,7 +13672,7 @@
         <v>16433808.15834831</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13975,7 +13705,7 @@
         <v>16527474.43014831</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14008,7 +13738,7 @@
         <v>16533514.47444831</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14041,7 +13771,7 @@
         <v>16550856.23514831</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14074,7 +13804,7 @@
         <v>16635202.81784831</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14107,7 +13837,7 @@
         <v>16635202.81784831</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14140,7 +13870,7 @@
         <v>16637533.98404831</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14173,7 +13903,7 @@
         <v>16634225.27174831</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14206,7 +13936,7 @@
         <v>16015447.36314831</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14217,6 +13947,6 @@
       <c r="M385" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest FAB.xlsx
+++ b/BackTest/2019-11-18 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-1028972.708599465</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1028872.708599465</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1321 +517,1217 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>7.33</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7435.5593</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1030631.708599465</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>225461.4337</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1256093.142299465</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1255993.142299465</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1315994.142299465</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16860</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1315994.142299465</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>113541.7008</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1429535.843099465</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>259562.8211</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1429535.843099465</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1444535.843099465</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1444535.843099465</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F14" t="n">
+        <v>243.3417</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1444292.501399465</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7435.5593</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1030631.708599465</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1665</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1445957.501399465</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1448557.501399465</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6832</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1448557.501399465</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13332</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1435225.501399465</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1435225.501399465</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3104.0008</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1438329.502199465</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3875.1069</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1438329.502199465</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F22" t="n">
+        <v>90149.46580000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1528478.967999465</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>200</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1528278.967999465</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1348</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1528278.967999465</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1348</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1529626.967999465</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20025.2827</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1509601.685299465</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5857.3951</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1509601.685299465</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20331.92</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1489269.765299465</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1489169.765299465</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1489569.765299465</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>659.2229</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1489569.765299465</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17600</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1489569.765299465</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1489469.765299465</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>7.34</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C34" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1489369.765299465</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J34" t="n">
         <v>7.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6979.1077</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1496348.872999465</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>7.34</v>
       </c>
-      <c r="E6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>225461.4337</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1256093.142299465</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J35" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F36" t="n">
+        <v>200</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1496148.872999465</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1255993.142299465</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1315994.142299465</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16860</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1315994.142299465</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>113541.7008</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1429535.843099465</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>259562.8211</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1429535.843099465</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1444535.843099465</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1444535.843099465</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F14" t="n">
-        <v>243.3417</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1444292.501399465</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1665</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1445957.501399465</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1448557.501399465</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6832</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1448557.501399465</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13332</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1435225.501399465</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1435225.501399465</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3104.0008</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1438329.502199465</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3875.1069</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1438329.502199465</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="F22" t="n">
-        <v>90149.46580000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1528478.967999465</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F23" t="n">
-        <v>200</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1528278.967999465</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1348</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1528278.967999465</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1348</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-1529626.967999465</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F26" t="n">
-        <v>20025.2827</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1509601.685299465</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5857.3951</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1509601.685299465</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="F28" t="n">
-        <v>20331.92</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-1489269.765299465</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-1489169.765299465</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-1489569.765299465</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>659.2229</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1489569.765299465</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>17600</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1489569.765299465</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1489469.765299465</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1489369.765299465</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6979.1077</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1496348.872999465</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="F36" t="n">
-        <v>200</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-1496148.872999465</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1756,13 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J37" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1903,11 +1797,13 @@
         <v>-1510026.290899465</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J38" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1942,11 +1838,13 @@
         <v>-1618631.254299465</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J39" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1981,11 +1879,13 @@
         <v>-1614489.290799465</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J40" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2020,11 +1920,13 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J41" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2063,7 +1965,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2102,7 +2004,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2141,7 +2043,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2176,11 +2078,13 @@
         <v>-1688467.379099465</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J45" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2215,11 +2119,13 @@
         <v>-1769358.682199465</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J46" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2254,11 +2160,13 @@
         <v>-1769258.682199465</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.27</v>
+      </c>
       <c r="J47" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2297,7 +2205,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2336,7 +2244,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2375,7 +2283,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2414,7 +2322,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2453,7 +2361,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2488,11 +2396,13 @@
         <v>-2613935.844899465</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.13</v>
+      </c>
       <c r="J53" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2533,7 +2443,7 @@
         <v>7.12</v>
       </c>
       <c r="J54" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2574,7 +2484,7 @@
         <v>7.13</v>
       </c>
       <c r="J55" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2609,11 +2519,13 @@
         <v>-1247910.788744377</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.27</v>
+      </c>
       <c r="J56" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2652,7 +2564,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2691,7 +2603,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2730,7 +2642,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2769,7 +2681,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2808,7 +2720,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2847,7 +2759,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2886,7 +2798,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2925,7 +2837,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2964,7 +2876,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3003,7 +2915,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3042,7 +2954,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3081,7 +2993,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3120,7 +3032,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3159,7 +3071,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3198,7 +3110,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3237,7 +3149,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3276,7 +3188,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3315,7 +3227,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3354,7 +3266,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3393,7 +3305,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3432,7 +3344,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3471,7 +3383,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3510,7 +3422,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3549,7 +3461,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3588,7 +3500,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3627,7 +3539,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3666,7 +3578,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3705,7 +3617,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3744,7 +3656,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3783,7 +3695,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3822,7 +3734,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3861,7 +3773,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3900,7 +3812,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3939,7 +3851,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3978,7 +3890,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4017,7 +3929,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4056,7 +3968,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4095,7 +4007,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4134,7 +4046,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4173,7 +4085,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4212,7 +4124,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4251,7 +4163,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4290,7 +4202,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4329,7 +4241,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4368,7 +4280,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4407,7 +4319,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4446,7 +4358,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4485,7 +4397,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4524,7 +4436,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4563,7 +4475,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4602,7 +4514,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4641,7 +4553,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4680,7 +4592,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4719,7 +4631,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4758,7 +4670,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4797,7 +4709,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4836,7 +4748,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4875,7 +4787,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4914,7 +4826,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4953,7 +4865,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4992,7 +4904,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5031,7 +4943,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5070,7 +4982,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5109,7 +5021,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5148,7 +5060,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5187,7 +5099,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5226,7 +5138,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5265,7 +5177,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5304,7 +5216,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5343,7 +5255,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5382,7 +5294,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5421,7 +5333,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5460,7 +5372,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5499,7 +5411,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5538,7 +5450,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5577,7 +5489,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5612,452 +5524,530 @@
         <v>8524773.866511198</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1181815.241276915</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9706589.107788112</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1929161.425652577</v>
+      </c>
+      <c r="G135" t="n">
+        <v>11635750.53344069</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3623879.322836743</v>
+      </c>
+      <c r="G136" t="n">
+        <v>15259629.85627743</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F137" t="n">
+        <v>805705.8087000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>14453924.04757743</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F138" t="n">
+        <v>291936.807</v>
+      </c>
+      <c r="G138" t="n">
+        <v>14161987.24057743</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1287499.3903</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12874487.85027743</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>789496.1351</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13663983.98537743</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>59787.8799</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13663983.98537743</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1163172.1472</v>
+      </c>
+      <c r="G142" t="n">
+        <v>14827156.13257743</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F143" t="n">
+        <v>883425.33</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15710581.46257743</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>200219.2129</v>
+      </c>
+      <c r="G144" t="n">
+        <v>15510362.24967743</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1493237.0579</v>
+      </c>
+      <c r="G145" t="n">
+        <v>17003599.30757743</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F146" t="n">
+        <v>105563.9583</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16898035.34927743</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1.201002728512961</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1.010914051841746</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1181815.241276915</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9706589.107788112</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1929161.425652577</v>
-      </c>
-      <c r="G135" t="n">
-        <v>11635750.53344069</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="D136" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3623879.322836743</v>
-      </c>
-      <c r="G136" t="n">
-        <v>15259629.85627743</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F137" t="n">
-        <v>805705.8087000001</v>
-      </c>
-      <c r="G137" t="n">
-        <v>14453924.04757743</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="C138" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F138" t="n">
-        <v>291936.807</v>
-      </c>
-      <c r="G138" t="n">
-        <v>14161987.24057743</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1287499.3903</v>
-      </c>
-      <c r="G139" t="n">
-        <v>12874487.85027743</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F140" t="n">
-        <v>789496.1351</v>
-      </c>
-      <c r="G140" t="n">
-        <v>13663983.98537743</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F141" t="n">
-        <v>59787.8799</v>
-      </c>
-      <c r="G141" t="n">
-        <v>13663983.98537743</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1163172.1472</v>
-      </c>
-      <c r="G142" t="n">
-        <v>14827156.13257743</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="F143" t="n">
-        <v>883425.33</v>
-      </c>
-      <c r="G143" t="n">
-        <v>15710581.46257743</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F144" t="n">
-        <v>200219.2129</v>
-      </c>
-      <c r="G144" t="n">
-        <v>15510362.24967743</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1493237.0579</v>
-      </c>
-      <c r="G145" t="n">
-        <v>17003599.30757743</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F146" t="n">
-        <v>105563.9583</v>
-      </c>
-      <c r="G146" t="n">
-        <v>16898035.34927743</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>1.338324250681199</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.053977272727273</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6082,7 +6072,7 @@
         <v>16425784.61637743</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6115,7 +6105,7 @@
         <v>15593327.26097743</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6148,7 +6138,7 @@
         <v>13372897.35648284</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6181,7 +6171,7 @@
         <v>13628334.60722867</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6214,7 +6204,7 @@
         <v>12967976.36106618</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6247,7 +6237,7 @@
         <v>12563284.83856618</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6379,7 +6369,7 @@
         <v>12716787.50016618</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6412,7 +6402,7 @@
         <v>11324204.23026618</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6445,7 +6435,7 @@
         <v>11364307.91456618</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6544,7 +6534,7 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6577,7 +6567,7 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6610,7 +6600,7 @@
         <v>11048107.30656618</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6643,7 +6633,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6676,7 +6666,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6709,7 +6699,7 @@
         <v>10596759.24696618</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6742,7 +6732,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6775,7 +6765,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6808,7 +6798,7 @@
         <v>10852002.15117518</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6841,7 +6831,7 @@
         <v>10868932.2701983</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6874,7 +6864,7 @@
         <v>10774133.3155983</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -11659,7 +11649,7 @@
         <v>15424633.64632089</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11692,7 +11682,7 @@
         <v>15612950.88852494</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11725,7 +11715,7 @@
         <v>16988830.6552389</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11758,7 +11748,7 @@
         <v>16887316.94030141</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11791,7 +11781,7 @@
         <v>17645731.12988746</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11824,7 +11814,7 @@
         <v>19559446.8503371</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11857,7 +11847,7 @@
         <v>19227541.67838705</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11890,7 +11880,7 @@
         <v>18364915.91968705</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11923,7 +11913,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11956,7 +11946,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11989,7 +11979,7 @@
         <v>18783175.36938644</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12022,7 +12012,7 @@
         <v>18566159.37658644</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12055,7 +12045,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12088,7 +12078,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12121,7 +12111,7 @@
         <v>19092173.17278146</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12154,7 +12144,7 @@
         <v>18979343.45168146</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12187,7 +12177,7 @@
         <v>18769918.49408146</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12220,7 +12210,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12253,7 +12243,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12286,7 +12276,7 @@
         <v>19063313.7385634</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12319,7 +12309,7 @@
         <v>19053760.4221634</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12352,7 +12342,7 @@
         <v>18843764.77036341</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12385,7 +12375,7 @@
         <v>18849392.05296341</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12418,7 +12408,7 @@
         <v>17367251.87166341</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12451,7 +12441,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12484,7 +12474,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12517,7 +12507,7 @@
         <v>16709375.33526341</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12550,7 +12540,7 @@
         <v>16645799.13136341</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12583,7 +12573,7 @@
         <v>16312552.75346341</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12616,7 +12606,7 @@
         <v>15735667.46736341</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
